--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,6 +433,134 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>619</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>mai hồng nương</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Thu cánh mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -727,7 +856,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="30">
@@ -777,17 +906,17 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mai hồng nương</t>
+          <t>đường thị út</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -519,7 +519,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Thu cánh mũi</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -528,26 +528,69 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>100000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tổng</t>
+          <t>HD-LUXURY</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+        <v>619</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mai hồng nương</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Thu cánh mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
       <c r="I3" t="n">
         <v>100000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +899,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="30">
@@ -906,7 +949,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="35">
@@ -916,7 +959,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100000</v>
+        <v>150000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -9,7 +9,8 @@
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn phụ phẫu 2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,20 +578,63 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>625</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ chăm</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="n">
-        <v>150000</v>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>
@@ -599,6 +643,134 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>627</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">tạ duy hoàng </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -829,7 +1001,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23">
@@ -839,7 +1011,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>192500</v>
       </c>
     </row>
     <row r="24">
@@ -849,7 +1021,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1080357.142857143</v>
       </c>
     </row>
     <row r="25">
@@ -899,7 +1071,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>150000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="30">
@@ -949,7 +1121,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>150000</v>
+        <v>1472857.142857143</v>
       </c>
     </row>
     <row r="35">
@@ -959,7 +1131,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>150000</v>
+        <v>1472857.142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,7 +500,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08-02-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -621,19 +621,62 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>636</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>thạch thị siêu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cấy mỡ mặt </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="n">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="n">
         <v>200000</v>
       </c>
     </row>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -664,20 +664,149 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>646</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>đố thị ngọc thuý</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>652</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>653</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>200000</v>
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="n">
+        <v>400000</v>
       </c>
     </row>
   </sheetData>
@@ -934,7 +1063,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -1034,7 +1163,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="22">
@@ -1044,7 +1173,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="23">
@@ -1054,7 +1183,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>192500</v>
+        <v>332500</v>
       </c>
     </row>
     <row r="24">
@@ -1064,7 +1193,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1080357.142857143</v>
+        <v>1866071.428571428</v>
       </c>
     </row>
     <row r="25">
@@ -1114,7 +1243,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>200000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="30">
@@ -1134,7 +1263,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>-2750000</v>
       </c>
     </row>
     <row r="32">
@@ -1164,7 +1293,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1472857.142857143</v>
+        <v>-151428.5714285718</v>
       </c>
     </row>
     <row r="35">
@@ -1174,7 +1303,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1472857.142857143</v>
+        <v>-151428.5714285718</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -8,9 +8,10 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Đơn phụ phẫu 1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Đơn phụ phẫu 2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Lương" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Đơn 1 bác sĩ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn phụ phẫu 1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Đơn phụ phẫu 2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Lương" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,12 +481,37 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Phụ phẫu 1</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1</t>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu bác sĩ 1</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu bác sĩ 1</t>
         </is>
       </c>
     </row>
@@ -496,11 +522,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>618</v>
+        <v>674</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>08-08-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -510,302 +536,72 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>đường thị út</t>
+          <t>sơn thị chành thi</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Cá nhân</t>
+          <t>CTV</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
+          <t>Tiêm môi</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4000000</v>
       </c>
       <c r="I2" t="n">
-        <v>50000</v>
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>400000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HD-LUXURY</t>
+          <t>Tổng</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>619</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>08-02-2024</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>mai hồng nương</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Thu cánh mũi</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>625</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>08-04-2024</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>nguyễn thị mỹ chăm</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>636</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>08-09-2024</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>thạch thị siêu</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>CTV</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">cấy mỡ mặt </t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>646</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>08-12-2024</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>đố thị ngọc thuý</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Tiêm Filler</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>652</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>08-16-2024</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">đặng thị hồng hạnh </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Nâng mũi</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>HD-LUXURY</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>653</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>08-16-2024</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>SÓC TRĂNG</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">đặng thị hồng hạnh </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cá nhân</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Cắt mí</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Kha Như Huỳnh </t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Tổng</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>400000</v>
       </c>
     </row>
@@ -815,6 +611,478 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>618</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>đường thị út</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>619</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-02-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>mai hồng nương</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Thu cánh mũi</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>625</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>nguyễn thị mỹ chăm</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>636</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>08-09-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>thạch thị siêu</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>CTV</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">cấy mỡ mặt </t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>646</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>08-12-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>đố thị ngọc thuý</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>652</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>653</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>08-16-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">đặng thị hồng hạnh </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>677</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">nguyễn thị kim phượng </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>679</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>08-24-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>lý thị thuý vi</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cắt mí</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>500000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -942,7 +1210,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1491,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="28">
@@ -1243,7 +1511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>400000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="30">
@@ -1293,7 +1561,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-151428.5714285718</v>
+        <v>348571.4285714282</v>
       </c>
     </row>
     <row r="35">
@@ -1303,7 +1571,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-151428.5714285718</v>
+        <v>348571.4285714282</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.5</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="23">
@@ -1451,7 +1451,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>332500</v>
+        <v>717500</v>
       </c>
     </row>
     <row r="24">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1866071.428571428</v>
+        <v>4026785.714285714</v>
       </c>
     </row>
     <row r="25">
@@ -1561,7 +1561,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>348571.4285714282</v>
+        <v>2894285.714285715</v>
       </c>
     </row>
     <row r="35">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>348571.4285714282</v>
+        <v>2894285.714285715</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -616,7 +616,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1061,20 +1061,63 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>696</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>08-28-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>nguyễn thanh tuyền</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kha Như Huỳnh </t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="n">
-        <v>500000</v>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>600000</v>
       </c>
     </row>
   </sheetData>
@@ -1441,7 +1484,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="23">
@@ -1451,7 +1494,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>717500</v>
+        <v>822500</v>
       </c>
     </row>
     <row r="24">
@@ -1461,7 +1504,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4026785.714285714</v>
+        <v>4616071.428571428</v>
       </c>
     </row>
     <row r="25">
@@ -1511,7 +1554,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>500000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="30">
@@ -1531,7 +1574,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2750000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="32">
@@ -1561,7 +1604,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2894285.714285715</v>
+        <v>5438571.428571428</v>
       </c>
     </row>
     <row r="35">
@@ -1571,7 +1614,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2894285.714285715</v>
+        <v>5438571.428571428</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -1574,7 +1574,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1000000</v>
+        <v>-2000000</v>
       </c>
     </row>
     <row r="32">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5438571.428571428</v>
+        <v>4438571.428571428</v>
       </c>
     </row>
     <row r="35">
@@ -1614,7 +1614,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5438571.428571428</v>
+        <v>4438571.428571428</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
+++ b/Báo cáo/3_SÓC TRĂNG/Báo cáo cá nhân/NV-16 Kha Như Huỳnh  8-2024.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,35 +574,91 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>707</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>08-31-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dương ngọc hân</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Tiêm Filler</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="I3" t="n">
+        <v/>
+      </c>
+      <c r="J3" t="n">
+        <v/>
+      </c>
+      <c r="K3" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1300000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4000000</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>400000</v>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>5300000</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5300000</v>
+      </c>
+      <c r="L4" t="n">
+        <v>5300000</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>530000</v>
       </c>
     </row>
   </sheetData>
@@ -1274,7 +1330,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2">
@@ -1484,7 +1540,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.5</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="23">
@@ -1494,7 +1550,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>822500</v>
+        <v>857500</v>
       </c>
     </row>
     <row r="24">
@@ -1504,7 +1560,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4616071.428571428</v>
+        <v>4812500</v>
       </c>
     </row>
     <row r="25">
@@ -1534,7 +1590,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>400000</v>
+        <v>530000</v>
       </c>
     </row>
     <row r="28">
@@ -1604,7 +1660,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4438571.428571428</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="35">
@@ -1614,7 +1670,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4438571.428571428</v>
+        <v>4800000</v>
       </c>
     </row>
   </sheetData>
